--- a/source/a_revenue_report_25_2025_09.xlsx
+++ b/source/a_revenue_report_25_2025_09.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="月次楽曲ごと収益レポート" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="月次楽曲ごと収益レポート" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -101,16 +101,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -215,28 +218,32 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -317,6 +324,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -325,7 +438,7 @@
   <dimension ref="A1:W1006"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55859375" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -341,135 +454,135 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="22.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="19.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="2" width="10.49"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="5" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>15.291949</v>
-      </c>
-      <c r="F2" s="1" t="n">
+      <c r="E2" s="0" t="n">
+        <v>692.992254</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="n">
         <f aca="false">SUM(D2:F2)</f>
-        <v>15.291949</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+        <v>692.992254</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>2.936179</v>
-      </c>
-      <c r="F3" s="1" t="n">
+      <c r="E3" s="0" t="n">
+        <v>13.926178</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="n">
         <f aca="false">SUM(D3:F3)</f>
-        <v>2.936179</v>
+        <v>13.926178</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>1.084105</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>201.245922</v>
+      <c r="E4" s="0" t="n">
+        <v>3.383059</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2.012459</v>
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SUM(D4:F4)</f>
-        <v>202.330027</v>
+        <v>5.395518</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>11.636481</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>27464.949749</v>
+      <c r="E5" s="0" t="n">
+        <v>379.509923</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>27.464949</v>
       </c>
       <c r="G5" s="1" t="n">
         <f aca="false">SUM(D5:F5)</f>
-        <v>27476.58623</v>
+        <v>406.974872</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
